--- a/bags-list.xlsx
+++ b/bags-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\YandexDisk\GitHub\HTML-CSS\00-Projects\smart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47CDBA09-7B2E-4353-96E4-12F4FFD183ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{737F1971-8678-4160-BFA5-CEAB919AA63D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{08EE098C-9521-4D4C-9BC3-662C0E4B1499}"/>
   </bookViews>
@@ -565,7 +565,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -642,32 +642,35 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1016,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E3A27F-6F6A-4A17-A555-498CC7F88489}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1055,77 +1058,77 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1">
-      <c r="A3" s="35"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="40" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="42" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1">
-      <c r="A5" s="37"/>
-      <c r="B5" s="40"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="43"/>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1">
-      <c r="A6" s="37"/>
-      <c r="B6" s="39" t="s">
+      <c r="A6" s="38"/>
+      <c r="B6" s="40" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="42" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1">
-      <c r="A7" s="37"/>
-      <c r="B7" s="43"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="44"/>
+      <c r="D7" s="45"/>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="43"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="44"/>
+      <c r="D8" s="45"/>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1">
-      <c r="A9" s="38"/>
-      <c r="B9" s="40"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="42"/>
+      <c r="D9" s="43"/>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
     </row>
     <row r="11" spans="1:4" ht="27" thickBot="1">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -1139,7 +1142,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="27" thickBot="1">
-      <c r="A12" s="30"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="20" t="s">
         <v>17</v>
       </c>
@@ -1151,7 +1154,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="40.200000000000003" thickBot="1">
-      <c r="A13" s="27"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="20" t="s">
         <v>19</v>
       </c>
@@ -1163,10 +1166,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
     </row>
     <row r="15" spans="1:4" ht="40.200000000000003" thickBot="1">
       <c r="A15" s="10" t="s">
@@ -1183,10 +1186,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4" ht="27" thickBot="1">
       <c r="A17" s="24" t="s">
@@ -1203,10 +1206,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
     </row>
     <row r="19" spans="1:4" ht="27" thickBot="1">
       <c r="A19" s="24" t="s">
@@ -1223,13 +1226,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
     </row>
     <row r="21" spans="1:4" ht="27" thickBot="1">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="27" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="20" t="s">
@@ -1243,7 +1246,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="79.8" thickBot="1">
-      <c r="A22" s="27"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="20" t="s">
         <v>33</v>
       </c>
@@ -1255,13 +1258,13 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" thickBot="1">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
     </row>
     <row r="24" spans="1:4" ht="79.8" thickBot="1">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="27" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="20" t="s">
@@ -1273,59 +1276,59 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1">
-      <c r="A26" s="30"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="6" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1">
-      <c r="A27" s="30"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="6" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" thickBot="1">
-      <c r="A28" s="30"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="6" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" thickBot="1">
-      <c r="A29" s="30"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="6" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="53.4" thickBot="1">
-      <c r="A30" s="30"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="8" t="s">
         <v>43</v>
       </c>
@@ -1335,7 +1338,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="53.4" thickBot="1">
-      <c r="A31" s="30"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="8" t="s">
         <v>44</v>
       </c>
@@ -1347,7 +1350,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="40.200000000000003" thickBot="1">
-      <c r="A32" s="30"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="8" t="s">
         <v>46</v>
       </c>
@@ -1359,7 +1362,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="40.200000000000003" thickBot="1">
-      <c r="A33" s="27"/>
+      <c r="A33" s="32"/>
       <c r="B33" s="8" t="s">
         <v>48</v>
       </c>
@@ -1369,13 +1372,13 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" thickBot="1">
-      <c r="A34" s="28"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
     </row>
     <row r="35" spans="1:4" ht="40.200000000000003" thickBot="1">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="27" t="s">
         <v>49</v>
       </c>
       <c r="B35" s="8" t="s">
@@ -1389,7 +1392,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="40.200000000000003" thickBot="1">
-      <c r="A36" s="30"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="8" t="s">
         <v>52</v>
       </c>
@@ -1401,7 +1404,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="40.200000000000003" thickBot="1">
-      <c r="A37" s="30"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="8" t="s">
         <v>54</v>
       </c>
@@ -1413,7 +1416,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="40.200000000000003" thickBot="1">
-      <c r="A38" s="30"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="20" t="s">
         <v>56</v>
       </c>
@@ -1425,7 +1428,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="27" thickBot="1">
-      <c r="A39" s="30"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="20" t="s">
         <v>58</v>
       </c>
@@ -1437,31 +1440,31 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" thickBot="1">
-      <c r="A40" s="30"/>
-      <c r="B40" s="4" t="s">
+      <c r="A40" s="28"/>
+      <c r="B40" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" thickBot="1">
-      <c r="A41" s="30"/>
-      <c r="B41" s="4" t="s">
+      <c r="A41" s="28"/>
+      <c r="B41" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="53.4" thickBot="1">
-      <c r="A42" s="34"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="4" t="s">
         <v>64</v>
       </c>

--- a/bags-list.xlsx
+++ b/bags-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\YandexDisk\GitHub\HTML-CSS\00-Projects\smart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{737F1971-8678-4160-BFA5-CEAB919AA63D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A719771-814C-4B3D-B9E8-80B5774D9933}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{08EE098C-9521-4D4C-9BC3-662C0E4B1499}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
   <si>
     <t>количество багов</t>
   </si>
@@ -238,6 +238,12 @@
   </si>
   <si>
     <t>Проверить телефон</t>
+  </si>
+  <si>
+    <t>Cделать для попапа</t>
+  </si>
+  <si>
+    <t>Перед ПП</t>
   </si>
 </sst>
 </file>
@@ -565,7 +571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -576,18 +582,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -596,16 +593,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -644,6 +635,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1017,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E3A27F-6F6A-4A17-A555-498CC7F88489}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1046,432 +1043,435 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="40.799999999999997" thickTop="1" thickBot="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="39" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1">
-      <c r="A5" s="38"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="15" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="43"/>
+      <c r="D5" s="40"/>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1">
-      <c r="A6" s="38"/>
-      <c r="B6" s="40" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="39" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1">
-      <c r="A7" s="38"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="15" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="45"/>
+      <c r="D7" s="42"/>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1">
-      <c r="A8" s="38"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="15" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="45"/>
+      <c r="D8" s="42"/>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1">
-      <c r="A9" s="39"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="14" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="43"/>
+      <c r="D9" s="40"/>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:4" ht="27" thickBot="1">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27" thickBot="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40.200000000000003" thickBot="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="20" t="s">
+      <c r="A13" s="29"/>
+      <c r="B13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
     </row>
     <row r="15" spans="1:4" ht="40.200000000000003" thickBot="1">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-    </row>
-    <row r="17" spans="1:4" ht="27" thickBot="1">
-      <c r="A17" s="24" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+    </row>
+    <row r="17" spans="1:5" ht="27" thickBot="1">
+      <c r="A17" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-    </row>
-    <row r="19" spans="1:4" ht="27" thickBot="1">
-      <c r="A19" s="24" t="s">
+      <c r="D17" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1">
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+    </row>
+    <row r="19" spans="1:5" ht="27" thickBot="1">
+      <c r="A19" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-    </row>
-    <row r="21" spans="1:4" ht="27" thickBot="1">
-      <c r="A21" s="27" t="s">
+      <c r="D19" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1">
+      <c r="A20" s="27"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+    </row>
+    <row r="21" spans="1:5" ht="27" thickBot="1">
+      <c r="A21" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="79.8" thickBot="1">
-      <c r="A22" s="32"/>
-      <c r="B22" s="20" t="s">
+      <c r="D21" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="79.8" thickBot="1">
+      <c r="A22" s="29"/>
+      <c r="B22" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-    </row>
-    <row r="24" spans="1:4" ht="79.8" thickBot="1">
-      <c r="A24" s="27" t="s">
+      <c r="D22" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" thickBot="1">
+      <c r="A23" s="27"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+    </row>
+    <row r="24" spans="1:5" ht="79.8" thickBot="1">
+      <c r="A24" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="23" t="s">
+      <c r="C24" s="20"/>
+      <c r="D24" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1">
-      <c r="A25" s="28"/>
-      <c r="B25" s="33" t="s">
+    <row r="25" spans="1:5" ht="15" thickBot="1">
+      <c r="A25" s="25"/>
+      <c r="B25" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1">
-      <c r="A26" s="28"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="21" t="s">
+      <c r="D25" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" thickBot="1">
+      <c r="A26" s="25"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1">
-      <c r="A27" s="28"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="21" t="s">
+      <c r="D26" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1">
+      <c r="A27" s="25"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1">
-      <c r="A28" s="28"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="21" t="s">
+      <c r="D27" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1">
+      <c r="A28" s="25"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1">
-      <c r="A29" s="28"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="21" t="s">
+      <c r="D28" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1">
+      <c r="A29" s="25"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="53.4" thickBot="1">
-      <c r="A30" s="28"/>
-      <c r="B30" s="8" t="s">
+      <c r="D29" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="53.4" thickBot="1">
+      <c r="A30" s="25"/>
+      <c r="B30" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="53.4" thickBot="1">
-      <c r="A31" s="28"/>
-      <c r="B31" s="8" t="s">
+      <c r="C30" s="20"/>
+      <c r="D30" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="53.4" thickBot="1">
+      <c r="A31" s="25"/>
+      <c r="B31" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="40.200000000000003" thickBot="1">
-      <c r="A32" s="28"/>
-      <c r="B32" s="8" t="s">
+      <c r="D31" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="40.200000000000003" thickBot="1">
+      <c r="A32" s="25"/>
+      <c r="B32" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>4</v>
+      <c r="D32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="40.200000000000003" thickBot="1">
-      <c r="A33" s="32"/>
-      <c r="B33" s="8" t="s">
+      <c r="A33" s="29"/>
+      <c r="B33" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="9" t="s">
-        <v>4</v>
+      <c r="C33" s="22"/>
+      <c r="D33" s="17" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" thickBot="1">
-      <c r="A34" s="30"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
     </row>
     <row r="35" spans="1:4" ht="40.200000000000003" thickBot="1">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="40.200000000000003" thickBot="1">
-      <c r="A36" s="28"/>
-      <c r="B36" s="8" t="s">
+      <c r="A36" s="25"/>
+      <c r="B36" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="40.200000000000003" thickBot="1">
-      <c r="A37" s="28"/>
-      <c r="B37" s="8" t="s">
+      <c r="A37" s="25"/>
+      <c r="B37" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="40.200000000000003" thickBot="1">
-      <c r="A38" s="28"/>
-      <c r="B38" s="20" t="s">
+      <c r="A38" s="25"/>
+      <c r="B38" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="27" thickBot="1">
-      <c r="A39" s="28"/>
-      <c r="B39" s="20" t="s">
+      <c r="A39" s="25"/>
+      <c r="B39" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" thickBot="1">
-      <c r="A40" s="28"/>
-      <c r="B40" s="17" t="s">
+      <c r="A40" s="25"/>
+      <c r="B40" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" thickBot="1">
-      <c r="A41" s="28"/>
-      <c r="B41" s="17" t="s">
+      <c r="A41" s="25"/>
+      <c r="B41" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="53.4" thickBot="1">
-      <c r="A42" s="29"/>
-      <c r="B42" s="4" t="s">
+      <c r="A42" s="26"/>
+      <c r="B42" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="14" t="s">
         <v>4</v>
       </c>
     </row>
